--- a/4-Current_work/FOM.xlsx
+++ b/4-Current_work/FOM.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Thesis\FOM\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Thesis\Master_Thesis_Deliverables\4-Current_work\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -750,7 +750,7 @@
   <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -760,7 +760,7 @@
     <col min="3" max="3" width="13.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="24.5703125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="18.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18" customWidth="1"/>
+    <col min="6" max="6" width="17.5703125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="37.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>

--- a/4-Current_work/FOM.xlsx
+++ b/4-Current_work/FOM.xlsx
@@ -750,7 +750,7 @@
   <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="A2" sqref="A2:G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
